--- a/计算机组成原理/课程设计/微码分析-第三题.xlsx
+++ b/计算机组成原理/课程设计/微码分析-第三题.xlsx
@@ -16,7 +16,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+  <si>
+    <t>DR-SR-&gt;DR</t>
+  </si>
+  <si>
+    <t>0000 0E01 B190 0088</t>
+  </si>
+  <si>
+    <t>CI3-0</t>
+  </si>
+  <si>
+    <t>顺序执行</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>接收ALU的标志位输出值</t>
+  </si>
+  <si>
+    <t>I8-6</t>
+  </si>
+  <si>
+    <t>F-&gt;AM2901输出Y</t>
+  </si>
+  <si>
+    <t>I5-3</t>
+  </si>
+  <si>
+    <t>F=S-R</t>
+  </si>
+  <si>
+    <t>I2-0</t>
+  </si>
+  <si>
+    <t>R=A,S=B</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SA=1,A=SR</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>SB=1,B=DR</t>
+  </si>
   <si>
     <t>PC-&gt;AR,PC+1-&gt;PC</t>
   </si>
@@ -24,27 +72,12 @@
     <t>0000 0E00 A0B5 5402</t>
   </si>
   <si>
-    <t>CI3-0</t>
-  </si>
-  <si>
-    <t>顺序执行</t>
-  </si>
-  <si>
-    <t>I8-6</t>
-  </si>
-  <si>
     <t>ALU结果F=PC+1-&gt;B=PC,A=PC-&gt;AM2901输出Y</t>
   </si>
   <si>
-    <t>I5-3</t>
-  </si>
-  <si>
     <t>F=R+S+Cin=0+B+1=PC+1</t>
   </si>
   <si>
-    <t>I2-0</t>
-  </si>
-  <si>
     <t>R=0,S=B=R5=PC</t>
   </si>
   <si>
@@ -60,73 +93,58 @@
     <t>AM2901输出Y-&gt;AR</t>
   </si>
   <si>
-    <t>SR XNOR DR,CC#=/Z</t>
-  </si>
-  <si>
-    <t>0029 0371 9710 0088</t>
+    <t>MEM+IP-&gt;IP,CC#=/Z,8Eh</t>
+  </si>
+  <si>
+    <t>0023 83E0 30D6 6000</t>
   </si>
   <si>
     <t>下地址</t>
   </si>
   <si>
-    <t>条件转移到A4H</t>
-  </si>
-  <si>
-    <t>条件转移，3#</t>
+    <t>8Eh,IP-&gt;PC</t>
+  </si>
+  <si>
+    <t>/MI0 REQ /WE</t>
+  </si>
+  <si>
+    <t>存储器读MEM</t>
+  </si>
+  <si>
+    <t>条件转移</t>
   </si>
   <si>
     <t>SCC</t>
   </si>
   <si>
-    <t>SCC=3,/CC=/Z</t>
-  </si>
-  <si>
-    <t>SST</t>
-  </si>
-  <si>
-    <t>接收ALU的标志位输出值</t>
-  </si>
-  <si>
-    <t>ALU结果F送AM2901输出Y</t>
-  </si>
-  <si>
-    <t>F=S NOR R=SR NOR DR</t>
-  </si>
-  <si>
-    <t>R=A,S=B</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>SA=1,A=SR</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>SB=1,B=DR</t>
-  </si>
-  <si>
-    <t>IP+MEM-&gt;PC,CC#=0</t>
-  </si>
-  <si>
-    <t>0029 0300 30D6 5000</t>
-  </si>
-  <si>
-    <t>/MI0 REQ /WE</t>
-  </si>
-  <si>
-    <t>存储器读MEM送到AM2901外部输入D</t>
-  </si>
-  <si>
-    <t>ALU结果F-&gt;B=PC,F-&gt;AM2901输出Y</t>
-  </si>
-  <si>
-    <t>F=R+S=MEM+IP</t>
-  </si>
-  <si>
-    <t>R=D=MEM,S=A=R6=IP</t>
+    <t>7,SCC=IR10-8=1,/CC=/Z</t>
+  </si>
+  <si>
+    <t>F-&gt;B=IP,F-&gt;Y</t>
+  </si>
+  <si>
+    <t>F=R+S</t>
+  </si>
+  <si>
+    <t>R=D=MEM,S=A=IP</t>
+  </si>
+  <si>
+    <t>A口</t>
+  </si>
+  <si>
+    <t>R6,IP</t>
+  </si>
+  <si>
+    <t>B口</t>
+  </si>
+  <si>
+    <t>CC#=0</t>
+  </si>
+  <si>
+    <t>0029 0300 9080 0000</t>
+  </si>
+  <si>
+    <t>A4h</t>
   </si>
 </sst>
 </file>
@@ -139,14 +157,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,48 +615,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,97 +669,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -753,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B26"/>
+      <selection activeCell="B31" sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1173,16 +1184,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
@@ -1197,123 +1208,155 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1372,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1346,7 +1389,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
